--- a/excel-execution/uploads/QLTN.xlsx
+++ b/excel-execution/uploads/QLTN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BD4C3-CA19-4521-AD31-364A9964EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D48C79-1668-4AFF-BA4D-6E15015A1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9C5A1AD7-89FE-4CA6-B826-4C6A70737E1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C5A1AD7-89FE-4CA6-B826-4C6A70737E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sizing" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="2029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5560" uniqueCount="2010">
   <si>
     <t>Tài nguyên QHĐC 2020</t>
   </si>
@@ -6186,70 +6186,13 @@
   </si>
   <si>
     <t>S3 Object(GB)</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Tổng</t>
-  </si>
-  <si>
-    <t>Owner FALSE</t>
-  </si>
-  <si>
-    <t>Nhómtàinguyên</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>NAS</t>
-  </si>
-  <si>
-    <t>Ceph</t>
-  </si>
-  <si>
-    <t>Bigdata</t>
-  </si>
-  <si>
-    <t>Arching</t>
-  </si>
-  <si>
-    <t>S3Object</t>
-  </si>
-  <si>
-    <t>Ceph2020</t>
-  </si>
-  <si>
-    <t>SAN2020</t>
-  </si>
-  <si>
-    <t>Ceph2021</t>
-  </si>
-  <si>
-    <t>SAN2021</t>
-  </si>
-  <si>
-    <t>Ceph2022</t>
-  </si>
-  <si>
-    <t>SAN2022</t>
-  </si>
-  <si>
-    <t>PrivateCloud2021(pc2021)</t>
-  </si>
-  <si>
-    <t>PrivateCloud2023(pc2023)</t>
-  </si>
-  <si>
-    <t>Bigdata2022(big2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6264,12 +6207,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6387,7 +6324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6410,24 +6347,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6437,19 +6356,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6788,8 +6716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44E5FCD-963F-4DB0-99F1-44F50AE27417}">
   <dimension ref="A1:L306"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="K304" sqref="K304"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="J305" sqref="J305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16154,7 +16082,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>285</v>
       </c>
@@ -16186,7 +16114,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>286</v>
       </c>
@@ -16218,7 +16146,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>287</v>
       </c>
@@ -16250,7 +16178,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>288</v>
       </c>
@@ -16282,7 +16210,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>289</v>
       </c>
@@ -16314,7 +16242,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>290</v>
       </c>
@@ -16343,7 +16271,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>291</v>
       </c>
@@ -16369,7 +16297,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>292</v>
       </c>
@@ -16398,7 +16326,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>293</v>
       </c>
@@ -16424,7 +16352,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>294</v>
       </c>
@@ -16450,208 +16378,33 @@
         <v>963</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="20" t="s">
-        <v>2010</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>1899</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>1900</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>1901</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>1902</v>
-      </c>
-      <c r="H300" s="2" t="s">
-        <v>1903</v>
-      </c>
-      <c r="I300" s="2" t="s">
-        <v>1905</v>
-      </c>
-      <c r="J300" s="2" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C301" s="2">
-        <v>9</v>
-      </c>
-      <c r="D301" s="2">
-        <v>7</v>
-      </c>
-      <c r="E301" s="2">
-        <v>6</v>
-      </c>
-      <c r="F301" s="2">
-        <v>4</v>
-      </c>
-      <c r="G301" s="2">
-        <v>4</v>
-      </c>
-      <c r="H301" s="2">
-        <v>4</v>
-      </c>
-      <c r="I301" s="2">
-        <v>8</v>
-      </c>
-      <c r="J301" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C302" s="2">
-        <v>7</v>
-      </c>
-      <c r="D302" s="2">
-        <v>7</v>
-      </c>
-      <c r="E302" s="2">
-        <v>8</v>
-      </c>
-      <c r="F302" s="2">
-        <v>5</v>
-      </c>
-      <c r="G302" s="2">
-        <v>7</v>
-      </c>
-      <c r="H302" s="2">
-        <v>6</v>
-      </c>
-      <c r="I302" s="2">
-        <v>8</v>
-      </c>
-      <c r="J302" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C303" s="2">
-        <v>16</v>
-      </c>
-      <c r="D303" s="2">
-        <v>8</v>
-      </c>
-      <c r="E303" s="2">
-        <v>8</v>
-      </c>
-      <c r="F303" s="2">
-        <v>4</v>
-      </c>
-      <c r="G303" s="2">
-        <v>5</v>
-      </c>
-      <c r="H303" s="2">
-        <v>7</v>
-      </c>
-      <c r="I303" s="2">
-        <v>8</v>
-      </c>
-      <c r="J303" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C304" s="2">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2">
-        <v>7</v>
-      </c>
-      <c r="E304" s="2">
-        <v>8</v>
-      </c>
-      <c r="F304" s="2">
-        <v>5</v>
-      </c>
-      <c r="G304" s="2">
-        <v>4</v>
-      </c>
-      <c r="H304" s="2">
-        <v>6</v>
-      </c>
-      <c r="I304" s="2">
-        <v>10</v>
-      </c>
-      <c r="J304" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B305" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C305" s="2">
-        <v>0</v>
-      </c>
-      <c r="D305" s="2">
-        <v>0</v>
-      </c>
-      <c r="E305" s="2">
-        <v>8</v>
-      </c>
-      <c r="F305" s="2">
-        <v>5</v>
-      </c>
-      <c r="G305" s="2">
-        <v>7</v>
-      </c>
-      <c r="H305" s="2">
-        <v>6</v>
-      </c>
-      <c r="I305" s="2">
-        <v>6</v>
-      </c>
-      <c r="J305" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="20" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C306" s="2">
-        <v>40</v>
-      </c>
-      <c r="D306" s="2">
-        <v>29</v>
-      </c>
-      <c r="E306" s="2">
-        <v>38</v>
-      </c>
-      <c r="F306" s="2">
-        <v>23</v>
-      </c>
-      <c r="G306" s="2">
-        <v>27</v>
-      </c>
-      <c r="H306" s="2">
-        <v>29</v>
-      </c>
-      <c r="I306" s="2">
-        <v>40</v>
-      </c>
-      <c r="J306" s="2">
-        <v>0</v>
-      </c>
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="5"/>
+      <c r="L300" s="1"/>
+    </row>
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="5"/>
+      <c r="L301" s="1"/>
+    </row>
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="5"/>
+      <c r="L302" s="1"/>
+    </row>
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="5"/>
+      <c r="L303" s="1"/>
+    </row>
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="5"/>
+      <c r="L304" s="1"/>
+    </row>
+    <row r="305" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="5"/>
+      <c r="L305" s="1"/>
+    </row>
+    <row r="306" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="5"/>
+      <c r="L306" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21938,10 +21691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AFCEC6-D718-47B0-9BC3-643BC9A2AEB6}">
-  <dimension ref="A1:T280"/>
+  <dimension ref="A1:T269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="I272" sqref="I272"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271:K280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32803,272 +32556,6 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B271" s="19" t="s">
-        <v>2013</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E271" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F271" s="5" t="s">
-        <v>2014</v>
-      </c>
-      <c r="G271" s="5" t="s">
-        <v>2015</v>
-      </c>
-      <c r="H271" s="5" t="s">
-        <v>2016</v>
-      </c>
-      <c r="I271" s="5" t="s">
-        <v>2017</v>
-      </c>
-      <c r="J271" s="5" t="s">
-        <v>2018</v>
-      </c>
-      <c r="K271" s="5" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B272" s="19" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C272" s="5">
-        <v>418</v>
-      </c>
-      <c r="D272" s="5">
-        <v>-78</v>
-      </c>
-      <c r="E272" s="5">
-        <v>680</v>
-      </c>
-      <c r="F272" s="5">
-        <v>0</v>
-      </c>
-      <c r="G272" s="5">
-        <v>0</v>
-      </c>
-      <c r="H272" s="21">
-        <v>23140</v>
-      </c>
-    </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B273" s="19" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C273" s="5">
-        <v>820</v>
-      </c>
-      <c r="D273" s="21">
-        <v>2532</v>
-      </c>
-      <c r="E273" s="21">
-        <v>5776</v>
-      </c>
-      <c r="F273" s="21">
-        <v>46618</v>
-      </c>
-      <c r="G273" s="5">
-        <v>0</v>
-      </c>
-      <c r="H273" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B274" s="19" t="s">
-        <v>2022</v>
-      </c>
-      <c r="C274" s="5">
-        <v>0</v>
-      </c>
-      <c r="D274" s="5">
-        <v>0</v>
-      </c>
-      <c r="E274" s="5">
-        <v>0</v>
-      </c>
-      <c r="F274" s="5">
-        <v>0</v>
-      </c>
-      <c r="G274" s="5">
-        <v>0</v>
-      </c>
-      <c r="H274" s="21">
-        <v>10834</v>
-      </c>
-      <c r="I274" s="5">
-        <v>0</v>
-      </c>
-      <c r="J274" s="5">
-        <v>0</v>
-      </c>
-      <c r="K274" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="2:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B275" s="19" t="s">
-        <v>2023</v>
-      </c>
-      <c r="C275" s="21">
-        <v>10330</v>
-      </c>
-      <c r="D275" s="21">
-        <v>31133</v>
-      </c>
-      <c r="E275" s="21">
-        <v>32254</v>
-      </c>
-      <c r="F275" s="21">
-        <v>1031612</v>
-      </c>
-      <c r="G275" s="21">
-        <v>144340</v>
-      </c>
-      <c r="H275" s="21">
-        <v>4100</v>
-      </c>
-      <c r="I275" s="5">
-        <v>0</v>
-      </c>
-      <c r="J275" s="5">
-        <v>0</v>
-      </c>
-      <c r="K275" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B276" s="19" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C276" s="5">
-        <v>0</v>
-      </c>
-      <c r="D276" s="5">
-        <v>0</v>
-      </c>
-      <c r="E276" s="5">
-        <v>0</v>
-      </c>
-      <c r="F276" s="5">
-        <v>0</v>
-      </c>
-      <c r="G276" s="5">
-        <v>0</v>
-      </c>
-      <c r="H276" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B277" s="19" t="s">
-        <v>2025</v>
-      </c>
-      <c r="C277" s="21">
-        <v>17499</v>
-      </c>
-      <c r="D277" s="21">
-        <v>47973</v>
-      </c>
-      <c r="E277" s="21">
-        <v>39151</v>
-      </c>
-      <c r="F277" s="21">
-        <v>1057842</v>
-      </c>
-      <c r="G277" s="21">
-        <v>345396</v>
-      </c>
-      <c r="H277" s="5">
-        <v>0</v>
-      </c>
-      <c r="K277" s="5">
-        <v>20490</v>
-      </c>
-    </row>
-    <row r="278" spans="2:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B278" s="19" t="s">
-        <v>2026</v>
-      </c>
-      <c r="C278" s="21">
-        <v>4412</v>
-      </c>
-      <c r="D278" s="21">
-        <v>13186</v>
-      </c>
-      <c r="E278" s="21">
-        <v>7649</v>
-      </c>
-      <c r="F278" s="21">
-        <v>194962</v>
-      </c>
-      <c r="G278" s="21">
-        <v>105300</v>
-      </c>
-      <c r="H278" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="2:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B279" s="19" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C279" s="21">
-        <v>4979</v>
-      </c>
-      <c r="D279" s="21">
-        <v>13916</v>
-      </c>
-      <c r="E279" s="21">
-        <v>12363</v>
-      </c>
-      <c r="F279" s="21">
-        <v>305419</v>
-      </c>
-      <c r="G279" s="21">
-        <v>18477</v>
-      </c>
-      <c r="H279" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B280" s="19" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C280" s="5">
-        <v>0</v>
-      </c>
-      <c r="D280" s="5">
-        <v>0</v>
-      </c>
-      <c r="E280" s="5">
-        <v>0</v>
-      </c>
-      <c r="F280" s="5">
-        <v>0</v>
-      </c>
-      <c r="G280" s="5">
-        <v>0</v>
-      </c>
-      <c r="H280" s="5">
-        <v>0</v>
-      </c>
-      <c r="I280" s="5">
-        <v>0</v>
-      </c>
-      <c r="J280" s="5">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33096,62 +32583,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="18"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -33164,12 +32651,12 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -33262,64 +32749,64 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="13" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="18"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -33332,12 +32819,12 @@
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -33430,64 +32917,64 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="13" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="18"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
@@ -33500,12 +32987,12 @@
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -33553,106 +33040,106 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="8" t="s">
+      <c r="K30" s="16"/>
+      <c r="L30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="11"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
       <c r="N31" s="3" t="s">
         <v>2</v>
       </c>
@@ -33719,36 +33206,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
@@ -33765,6 +33222,36 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
